--- a/需求确认/任务分配_20190415.xlsx
+++ b/需求确认/任务分配_20190415.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="66">
   <si>
     <t>模块名称</t>
   </si>
@@ -51,23 +51,32 @@
     <t>已完成</t>
   </si>
   <si>
+    <t>需求新增</t>
+  </si>
+  <si>
+    <t>单独买车位时，判断是否在本小区有房产，如果没有再查询表REGISTRATION.esf_info判断买受人是
+否在本小区有房产信息,暂定后台维护添加表信息，创建新表REGISTRATION.esf_info、序列REGISTRATION.esf_info_SEQ</t>
+  </si>
+  <si>
+    <t>井明治</t>
+  </si>
+  <si>
+    <t>受让方为多人添加代理人时，代理人找不到</t>
+  </si>
+  <si>
+    <t>郑方瑞</t>
+  </si>
+  <si>
+    <t>受让方代理人保存后再次进入合同数据会丢失，销售员操作</t>
+  </si>
+  <si>
+    <t>开发办管理员修改人员信息时，买方位多人的情况修改后会，买房人变为一人</t>
+  </si>
+  <si>
     <t>需求变更</t>
   </si>
   <si>
-    <t>单独买车位时，判断是否在本小区有房产，如果没有再调用不动产接口判断买受人是
-否在本小区有房产信息</t>
-  </si>
-  <si>
-    <t>开发办管理员修改人员信息时，买方位多人的情况修改后会，买房人变为一人</t>
-  </si>
-  <si>
-    <t>井明治</t>
-  </si>
-  <si>
     <t>合同模板1中，商品房面积总额为主户室+从属类型为跃层或者商业类型的户室面积</t>
-  </si>
-  <si>
-    <t>需求新增</t>
   </si>
   <si>
     <t>合同备案后，更新户室管理中从户室销售状态为“备案”</t>
@@ -96,10 +105,13 @@
 每月26日至次月1日之前为数据上报日，逾期未上报的系统自动禁止网签功能</t>
   </si>
   <si>
+    <t>需求延后</t>
+  </si>
+  <si>
     <t>合同数据同步到contract表时，需要将case_type的值设为‘HTBA’</t>
   </si>
   <si>
-    <t>合同判断是否重复签订：语句select count(*) from lphs_case a inner join contractcase b on a.case_lsh=b.case_lsh where case_type='HTBA'  and lphs_lsh=:hslsh
+    <t>针对老合同判断是否重复签订：语句select count(*) from lphs_case a inner join contractcase b on a.case_lsh=b.case_lsh where case_type='HTBA'  and lphs_lsh=:hslsh
 判断签订合同的房屋是否已经存在合同信息，在合同签订选择房屋后判断，在销售经理转件时也判断</t>
   </si>
   <si>
@@ -123,19 +135,16 @@
     <t>提供接口，根据户室查询该户室存入的监管资金的总额</t>
   </si>
   <si>
-    <t>账户申请查看详情时，分页默认修改时报错</t>
-  </si>
-  <si>
-    <t>郑方瑞</t>
+    <t>杜保亚</t>
+  </si>
+  <si>
+    <t>账户申请查看详情时，默认分页修改时报错</t>
   </si>
   <si>
     <t>新需求</t>
   </si>
   <si>
     <t>监管账户申请时，审核通过后把楼盘对应的楼盘户室信息的state8字段值改为1（需要监管）</t>
-  </si>
-  <si>
-    <t>杜保亚</t>
   </si>
   <si>
     <t>预售资金监管存入时,notice表中的hslsh需要将合同对应的户室流水号存入</t>
@@ -234,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -263,51 +272,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -322,9 +286,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,8 +316,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,6 +332,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -362,8 +356,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,7 +372,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,6 +394,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -416,19 +425,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,37 +575,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,121 +599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,6 +634,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -636,15 +654,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,6 +697,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -705,17 +725,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -730,10 +739,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,133 +751,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -965,21 +974,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="3" tint="0.4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.4"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -994,6 +996,13 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1383,19 +1392,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="89.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="89" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -1436,7 +1445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="3" s="5" customFormat="1" ht="47" customHeight="1" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -1450,49 +1459,58 @@
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" s="5" customFormat="1" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="24" customHeight="1" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="16" customHeight="1" spans="1:4">
+    <row r="5" s="5" customFormat="1" ht="22" customHeight="1" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="19" customHeight="1" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>17</v>
@@ -1500,35 +1518,41 @@
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="21" customHeight="1" spans="1:6">
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="16" customHeight="1" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="45" customHeight="1" spans="1:5">
+    <row r="8" s="5" customFormat="1" ht="18" customHeight="1" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1537,33 +1561,39 @@
       <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="48" customHeight="1" spans="1:5">
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="38" customHeight="1" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="45" customHeight="1" spans="1:5">
       <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>8</v>
@@ -1572,15 +1602,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" ht="38" customHeight="1" spans="1:5">
+    <row r="11" s="5" customFormat="1" ht="48" customHeight="1" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>8</v>
@@ -1588,16 +1618,19 @@
       <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="23" customHeight="1" spans="1:6">
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="38" customHeight="1" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>8</v>
@@ -1609,15 +1642,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" ht="58" customHeight="1" spans="1:6">
+    <row r="13" s="5" customFormat="1" ht="38" customHeight="1" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>8</v>
@@ -1626,18 +1659,18 @@
         <v>9</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="89" customHeight="1" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="23" customHeight="1" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>8</v>
@@ -1645,16 +1678,19 @@
       <c r="E14" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="52" customHeight="1" spans="1:6">
       <c r="A15" s="9" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>8</v>
@@ -1662,44 +1698,53 @@
       <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" s="5" customFormat="1" ht="24" customHeight="1" spans="1:3">
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="89" customHeight="1" spans="1:6">
       <c r="A16" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" s="5" customFormat="1" ht="20" customHeight="1" spans="1:6">
-      <c r="A17" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="B17" s="5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="24" customHeight="1" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>34</v>
@@ -1710,33 +1755,39 @@
       <c r="E18" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" s="5" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="F18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="1" ht="20" customHeight="1" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" ht="26" customHeight="1" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A20" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="8" t="s">
         <v>37</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>8</v>
@@ -1744,16 +1795,19 @@
       <c r="E20" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" ht="63" customHeight="1" spans="1:5">
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A21" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>8</v>
@@ -1761,16 +1815,19 @@
       <c r="E21" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" ht="18" customHeight="1" spans="1:6">
+      <c r="F21" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" ht="26" customHeight="1" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>8</v>
@@ -1778,19 +1835,19 @@
       <c r="E22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="1:5">
+    <row r="23" ht="63" customHeight="1" spans="1:5">
       <c r="A23" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>8</v>
@@ -1799,15 +1856,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" ht="76" customHeight="1" spans="1:5">
+    <row r="24" ht="18" customHeight="1" spans="1:6">
       <c r="A24" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>8</v>
@@ -1815,16 +1872,19 @@
       <c r="E24" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" ht="51" customHeight="1" spans="1:5">
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:5">
       <c r="A25" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>8</v>
@@ -1833,15 +1893,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:6">
+    <row r="26" ht="67" customHeight="1" spans="1:5">
       <c r="A26" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
@@ -1849,16 +1909,13 @@
       <c r="E26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" ht="57" customHeight="1" spans="1:5">
-      <c r="A27" s="6" t="s">
-        <v>44</v>
+    </row>
+    <row r="27" ht="51" customHeight="1" spans="1:6">
+      <c r="A27" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>45</v>
@@ -1866,33 +1923,39 @@
       <c r="D27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:6">
+      <c r="A28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" ht="54" customHeight="1" spans="1:5">
-      <c r="A28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" ht="57" customHeight="1" spans="1:5">
+      <c r="A29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" ht="58" customHeight="1" spans="1:5">
-      <c r="A29" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>48</v>
@@ -1901,29 +1964,29 @@
         <v>8</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" ht="18" customHeight="1" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" ht="54" customHeight="1" spans="1:5">
       <c r="A30" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" ht="60" customHeight="1" spans="1:5">
+    </row>
+    <row r="31" ht="58" customHeight="1" spans="1:5">
       <c r="A31" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>11</v>
@@ -1935,162 +1998,250 @@
         <v>8</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:5">
       <c r="A32" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" ht="60" customHeight="1" spans="1:5">
+      <c r="A33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="D33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" ht="35" customHeight="1" spans="1:5">
-      <c r="A33" s="6" t="s">
+    <row r="34" ht="18" customHeight="1" spans="1:5">
+      <c r="A34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="B34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" ht="54" spans="1:5">
-      <c r="A34" s="6" t="s">
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="11" t="s">
+    </row>
+    <row r="35" ht="35" customHeight="1" spans="1:6">
+      <c r="A35" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>14</v>
+      <c r="B35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" ht="45" customHeight="1" spans="1:6">
+      <c r="A36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="29" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="30" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
-      <formula>"优化"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>"优化"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
       <formula>"新需求"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="25" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="26" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="38" operator="equal">
       <formula>"优化"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="31" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
       <formula>"优化"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="35" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="36" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="1" priority="39" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="40" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="cellIs" dxfId="1" priority="41" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="42" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="cellIs" dxfId="1" priority="57" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="59" operator="equal">
       <formula>"新需求"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="60" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="61" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="B11:B20">
+    <cfRule type="cellIs" dxfId="4" priority="63" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1 B6:B7 B9:B23 B25:B36">
+    <cfRule type="cellIs" dxfId="0" priority="64" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="65" operator="equal">
       <formula>"新需求"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="66" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="67" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B18">
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
-      <formula>"优化"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1 B4:B5 B7:B21 B23:B34">
-    <cfRule type="cellIs" dxfId="2" priority="38" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="40" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="41" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B21 B23:B34">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+  <conditionalFormatting sqref="B11:B23 B25:B36">
+    <cfRule type="cellIs" dxfId="1" priority="62" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B4 B5 B6 B7 B8 B9 B14 B15 B16 B17 B18 B22 B32 B10:B11 B12:B13 B19:B21 B23:B31 B33:B34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B16 B17 B18 B19 B20 B24 B34 B12:B13 B14:B15 B21:B23 B25:B33 B35:B36">
       <formula1>"bug,优化,新需求,需求变更,需求确认,需求新增"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2117,7 +2268,7 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2155,10 +2306,10 @@
     </row>
     <row r="29" ht="58" customHeight="1" spans="2:4">
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D29" s="4"/>
     </row>

--- a/需求确认/任务分配_20190415.xlsx
+++ b/需求确认/任务分配_20190415.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -272,8 +272,69 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,22 +348,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,68 +358,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,10 +372,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,12 +394,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -425,187 +425,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,6 +630,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,30 +674,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -699,11 +690,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,6 +720,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -739,10 +739,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,19 +751,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,112 +772,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1394,8 +1394,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
